--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruv100691/Documents/cs510/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579928EB-B766-0048-B541-77CAE55E9DE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1DCE3-A0C0-534C-86FF-3336FB63DD37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{A11AC85A-3E0E-3344-9C8B-E7E9FD2EC224}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -55,6 +55,39 @@
   </si>
   <si>
     <t>Original Model + last click info</t>
+  </si>
+  <si>
+    <t>After training optimization:</t>
+  </si>
+  <si>
+    <t>Original Model with BiRNN + bilinear attention</t>
+  </si>
+  <si>
+    <t>Original Model + bilinear attention</t>
+  </si>
+  <si>
+    <t>Original Model with BiRNN + bilinear attention with last click only</t>
+  </si>
+  <si>
+    <t>After adding features</t>
+  </si>
+  <si>
+    <t>Original Model with BiRNN + last click information (decoder multiplied with raw features)</t>
+  </si>
+  <si>
+    <t>All expermiments below with dim_proj=50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original Model with BiRNN + last click information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original Model with BiRNN </t>
+  </si>
+  <si>
+    <t>increase in time..because of multiple models being run at same time</t>
+  </si>
+  <si>
+    <t>Original Model + last click information</t>
   </si>
 </sst>
 </file>
@@ -70,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,9 +129,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D6BF07-9E5C-804F-A9A9-18AAF6CD567F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="1" max="1" width="58.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
@@ -524,6 +572,177 @@
         <v>2355700</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.62576818166880199</v>
+      </c>
+      <c r="C12">
+        <v>0.282408822730912</v>
+      </c>
+      <c r="D12">
+        <v>63.4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2355700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.62772355318939099</v>
+      </c>
+      <c r="C13">
+        <v>0.283550482204802</v>
+      </c>
+      <c r="D13">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2305500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.62803575536494705</v>
+      </c>
+      <c r="C14">
+        <v>0.28413188420970098</v>
+      </c>
+      <c r="D14">
+        <v>56.7</v>
+      </c>
+      <c r="E14">
+        <v>2220200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.62090440040750605</v>
+      </c>
+      <c r="C15">
+        <v>0.27771112893487498</v>
+      </c>
+      <c r="D15">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2275500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0.60665812218607196</v>
+      </c>
+      <c r="C19">
+        <v>0.53864624360478297</v>
+      </c>
+      <c r="D19">
+        <v>63.8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>633950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.60202438463307995</v>
+      </c>
+      <c r="C20">
+        <v>0.54910055114725798</v>
+      </c>
+      <c r="D20">
+        <v>49.6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>251150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.60605014952840996</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.54287290880779704</v>
+      </c>
+      <c r="D21" s="4">
+        <v>56.2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>241150</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.60544217687074797</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.54170919847686505</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45.1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>125750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.60757829701929</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.54013409127216405</v>
+      </c>
+      <c r="D23" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="E23" s="4">
+        <v>130750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
